--- a/Code/Results/Cases/Case_1_151/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_151/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4962208078544279</v>
+        <v>0.7205305911032269</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03408994806244436</v>
+        <v>0.01126933737403135</v>
       </c>
       <c r="E2">
-        <v>0.02183733000686683</v>
+        <v>0.0366412189657721</v>
       </c>
       <c r="F2">
-        <v>3.546820497424704</v>
+        <v>4.528730623816841</v>
       </c>
       <c r="G2">
-        <v>0.0008589280894077955</v>
+        <v>0.002641910959350843</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.862138175147621</v>
+        <v>2.494931622134104</v>
       </c>
       <c r="J2">
-        <v>0.06066869361226068</v>
+        <v>0.1014389295986393</v>
       </c>
       <c r="K2">
-        <v>1.866405377102438</v>
+        <v>1.468597778396258</v>
       </c>
       <c r="L2">
-        <v>0.4914558832025051</v>
+        <v>0.5926008526189719</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4389710246193488</v>
+        <v>0.7133901413602644</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02997545701234827</v>
+        <v>0.009876196763748624</v>
       </c>
       <c r="E3">
-        <v>0.02015059131478658</v>
+        <v>0.03610054927880046</v>
       </c>
       <c r="F3">
-        <v>3.327616158541616</v>
+        <v>4.480448900386264</v>
       </c>
       <c r="G3">
-        <v>0.0008672536975397164</v>
+        <v>0.002647047282163658</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.782223601163707</v>
+        <v>2.475614974372661</v>
       </c>
       <c r="J3">
-        <v>0.05953830496455303</v>
+        <v>0.1009483339147441</v>
       </c>
       <c r="K3">
-        <v>1.62654228965016</v>
+        <v>1.419528241681235</v>
       </c>
       <c r="L3">
-        <v>0.4390260056549522</v>
+        <v>0.5836601267851336</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4045203290787214</v>
+        <v>0.7095018409301019</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02751043853720603</v>
+        <v>0.009018767946329831</v>
       </c>
       <c r="E4">
-        <v>0.01913376672991873</v>
+        <v>0.03576334569520778</v>
       </c>
       <c r="F4">
-        <v>3.197310481378821</v>
+        <v>4.452224354894994</v>
       </c>
       <c r="G4">
-        <v>0.0008725111250475258</v>
+        <v>0.002650367787376107</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.73488986298868</v>
+        <v>2.464290087476286</v>
       </c>
       <c r="J4">
-        <v>0.05885080488181993</v>
+        <v>0.1006361114359202</v>
       </c>
       <c r="K4">
-        <v>1.482179882575451</v>
+        <v>1.390476022379204</v>
       </c>
       <c r="L4">
-        <v>0.4076492157103644</v>
+        <v>0.5785223269987512</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3906427332323545</v>
+        <v>0.7080423126041921</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02651909926403562</v>
+        <v>0.008668795280314612</v>
       </c>
       <c r="E5">
-        <v>0.01872317769686038</v>
+        <v>0.0356245946535374</v>
       </c>
       <c r="F5">
-        <v>3.145199608238656</v>
+        <v>4.441079086594129</v>
       </c>
       <c r="G5">
-        <v>0.0008746915307579122</v>
+        <v>0.002651762999087996</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.716003929493922</v>
+        <v>2.459809425440454</v>
       </c>
       <c r="J5">
-        <v>0.05857162293728013</v>
+        <v>0.1005060896942847</v>
       </c>
       <c r="K5">
-        <v>1.424000914959691</v>
+        <v>1.378907239804505</v>
       </c>
       <c r="L5">
-        <v>0.3950484567300236</v>
+        <v>0.576517031528212</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3883476989945933</v>
+        <v>0.7078075159496251</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02635522212617758</v>
+        <v>0.008610647042551989</v>
       </c>
       <c r="E6">
-        <v>0.01865520126451869</v>
+        <v>0.03560147368720923</v>
       </c>
       <c r="F6">
-        <v>3.136603960432993</v>
+        <v>4.439249930639988</v>
       </c>
       <c r="G6">
-        <v>0.000875055916876704</v>
+        <v>0.002651997218637968</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.712891347984616</v>
+        <v>2.459073517034625</v>
       </c>
       <c r="J6">
-        <v>0.05852530575079129</v>
+        <v>0.1004843305667817</v>
       </c>
       <c r="K6">
-        <v>1.4143772893066</v>
+        <v>1.377002559291327</v>
       </c>
       <c r="L6">
-        <v>0.3929667749298602</v>
+        <v>0.5761893908095459</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4043325365907009</v>
+        <v>0.7094816507976986</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02749701845880281</v>
+        <v>0.009014050441479071</v>
       </c>
       <c r="E7">
-        <v>0.01912821530405218</v>
+        <v>0.03576147989627465</v>
       </c>
       <c r="F7">
-        <v>3.196603800291868</v>
+        <v>4.452072603640772</v>
       </c>
       <c r="G7">
-        <v>0.0008725403753574243</v>
+        <v>0.002650386432990742</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.734633571217799</v>
+        <v>2.464229116334607</v>
       </c>
       <c r="J7">
-        <v>0.05884703660973178</v>
+        <v>0.1006343692387492</v>
       </c>
       <c r="K7">
-        <v>1.481392734298879</v>
+        <v>1.390318908231649</v>
       </c>
       <c r="L7">
-        <v>0.4074785509012457</v>
+        <v>0.5784949250517855</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4763262666196937</v>
+        <v>0.7179657829609027</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03265713987040897</v>
+        <v>0.01078937326585816</v>
       </c>
       <c r="E8">
-        <v>0.02125122400425639</v>
+        <v>0.03645586778909138</v>
       </c>
       <c r="F8">
-        <v>3.470293935168854</v>
+        <v>4.511787750192894</v>
       </c>
       <c r="G8">
-        <v>0.0008617694296676197</v>
+        <v>0.002643647432236025</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.834203006328408</v>
+        <v>2.488159848667991</v>
       </c>
       <c r="J8">
-        <v>0.06027714944077456</v>
+        <v>0.1012720397401807</v>
       </c>
       <c r="K8">
-        <v>1.783043587596666</v>
+        <v>1.45145480876721</v>
       </c>
       <c r="L8">
-        <v>0.4731966009681656</v>
+        <v>0.58944501531208</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6238080995624671</v>
+        <v>0.7385287902021105</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04337486930202061</v>
+        <v>0.0142571085679748</v>
       </c>
       <c r="E9">
-        <v>0.02561265016549896</v>
+        <v>0.03777713139314898</v>
       </c>
       <c r="F9">
-        <v>4.0453779650461</v>
+        <v>4.640205006299709</v>
       </c>
       <c r="G9">
-        <v>0.0008417338305641937</v>
+        <v>0.002631749213273808</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.044851894230121</v>
+        <v>2.53935770432517</v>
       </c>
       <c r="J9">
-        <v>0.06316764400328267</v>
+        <v>0.1024363682826639</v>
       </c>
       <c r="K9">
-        <v>2.401840066663084</v>
+        <v>1.579917263000766</v>
       </c>
       <c r="L9">
-        <v>0.6095092508505076</v>
+        <v>0.6137153226802923</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7371512131976772</v>
+        <v>0.7560201282798857</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05179081777942685</v>
+        <v>0.01680015808717883</v>
       </c>
       <c r="E10">
-        <v>0.02901511030272985</v>
+        <v>0.03872476847989681</v>
       </c>
       <c r="F10">
-        <v>4.498027017961164</v>
+        <v>4.741526312787613</v>
       </c>
       <c r="G10">
-        <v>0.000827571365128981</v>
+        <v>0.002623801463189634</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.211512378349042</v>
+        <v>2.579608420606988</v>
       </c>
       <c r="J10">
-        <v>0.06539769547099361</v>
+        <v>0.1032408368470685</v>
       </c>
       <c r="K10">
-        <v>2.879513138574879</v>
+        <v>1.679584427791781</v>
       </c>
       <c r="L10">
-        <v>0.7156993186328862</v>
+        <v>0.6332627396915598</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7900859710699137</v>
+        <v>0.7644932929803758</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.05578294193200861</v>
+        <v>0.01795683597941178</v>
       </c>
       <c r="E11">
-        <v>0.03062632458935965</v>
+        <v>0.03915119937895639</v>
       </c>
       <c r="F11">
-        <v>4.712195107696289</v>
+        <v>4.789151219041855</v>
       </c>
       <c r="G11">
-        <v>0.0008212233835206725</v>
+        <v>0.002620356294351905</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.290545622169617</v>
+        <v>2.598499198694043</v>
       </c>
       <c r="J11">
-        <v>0.06644953465283532</v>
+        <v>0.103596081208293</v>
       </c>
       <c r="K11">
-        <v>3.103459550400771</v>
+        <v>1.726087035905152</v>
       </c>
       <c r="L11">
-        <v>0.7657027780065846</v>
+        <v>0.6425305780236101</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8103556988904472</v>
+        <v>0.7677759030159166</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05732263822849859</v>
+        <v>0.01839487611705692</v>
       </c>
       <c r="E12">
-        <v>0.0312475603172544</v>
+        <v>0.03931203495608315</v>
       </c>
       <c r="F12">
-        <v>4.794642894212416</v>
+        <v>4.80740714492336</v>
       </c>
       <c r="G12">
-        <v>0.000818830716493636</v>
+        <v>0.002619076041969759</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.32099567534506</v>
+        <v>2.605736616519451</v>
       </c>
       <c r="J12">
-        <v>0.06685461139498639</v>
+        <v>0.1037290892305993</v>
       </c>
       <c r="K12">
-        <v>3.189374048147101</v>
+        <v>1.743864549279181</v>
       </c>
       <c r="L12">
-        <v>0.7849181684405835</v>
+        <v>0.646094240032852</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8059798057161061</v>
+        <v>0.7670656463876924</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.05698971617349002</v>
+        <v>0.018300534055399</v>
       </c>
       <c r="E13">
-        <v>0.03111323752089845</v>
+        <v>0.03927742440739479</v>
       </c>
       <c r="F13">
-        <v>4.776823632933201</v>
+        <v>4.803465542764656</v>
       </c>
       <c r="G13">
-        <v>0.0008193455647153752</v>
+        <v>0.002619350685974713</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.314413487476159</v>
+        <v>2.604174171478334</v>
       </c>
       <c r="J13">
-        <v>0.06676704545129653</v>
+        <v>0.1037005105652815</v>
       </c>
       <c r="K13">
-        <v>3.170818752457592</v>
+        <v>1.740028361571433</v>
       </c>
       <c r="L13">
-        <v>0.7807667069415629</v>
+        <v>0.6453243321352033</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7917489100187254</v>
+        <v>0.764761873392473</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05590902564285471</v>
+        <v>0.01799287285805207</v>
       </c>
       <c r="E14">
-        <v>0.03067719908842292</v>
+        <v>0.03916444419405885</v>
       </c>
       <c r="F14">
-        <v>4.71895015846701</v>
+        <v>4.790648702427774</v>
       </c>
       <c r="G14">
-        <v>0.0008210263283278085</v>
+        <v>0.002620250479940365</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.293039944660336</v>
+        <v>2.599092941766514</v>
       </c>
       <c r="J14">
-        <v>0.06648271620152268</v>
+        <v>0.1036070540827936</v>
       </c>
       <c r="K14">
-        <v>3.110504571528168</v>
+        <v>1.727546232030022</v>
       </c>
       <c r="L14">
-        <v>0.7672778020748012</v>
+        <v>0.6428226770393906</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7830621590645706</v>
+        <v>0.7633603769486967</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.05525085530004503</v>
+        <v>0.01780442722526487</v>
       </c>
       <c r="E15">
-        <v>0.03041162282158005</v>
+        <v>0.03909515734925861</v>
       </c>
       <c r="F15">
-        <v>4.683681464714965</v>
+        <v>4.782826878816934</v>
       </c>
       <c r="G15">
-        <v>0.0008220572231809634</v>
+        <v>0.002620804797888479</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.280017864613413</v>
+        <v>2.595991479072879</v>
       </c>
       <c r="J15">
-        <v>0.06630948258050484</v>
+        <v>0.1035496126998297</v>
       </c>
       <c r="K15">
-        <v>3.073709970153914</v>
+        <v>1.719922464208025</v>
       </c>
       <c r="L15">
-        <v>0.7590530916444607</v>
+        <v>0.6412973943675695</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7337216852336326</v>
+        <v>0.7554767556780178</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.05153358166859334</v>
+        <v>0.01672456781919607</v>
       </c>
       <c r="E16">
-        <v>0.02891125302000574</v>
+        <v>0.03869680867185643</v>
       </c>
       <c r="F16">
-        <v>4.484209998575835</v>
+        <v>4.738444845785153</v>
       </c>
       <c r="G16">
-        <v>0.0008279879229267516</v>
+        <v>0.002624030028905282</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.206417033056468</v>
+        <v>2.578385580587209</v>
       </c>
       <c r="J16">
-        <v>0.06532982197706971</v>
+        <v>0.103217407374844</v>
       </c>
       <c r="K16">
-        <v>2.86502432431277</v>
+        <v>1.676568842910143</v>
       </c>
       <c r="L16">
-        <v>0.7124686145955934</v>
+        <v>0.6326646331556844</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7038230889028227</v>
+        <v>0.750772470763394</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04929804210156163</v>
+        <v>0.01606210536301944</v>
       </c>
       <c r="E17">
-        <v>0.02800839252482135</v>
+        <v>0.03845126014517675</v>
       </c>
       <c r="F17">
-        <v>4.364063212857843</v>
+        <v>4.711611277700968</v>
       </c>
       <c r="G17">
-        <v>0.000831648801303407</v>
+        <v>0.002626052128730333</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.162129621838858</v>
+        <v>2.567733910434853</v>
       </c>
       <c r="J17">
-        <v>0.06473933459000758</v>
+        <v>0.1030108842795272</v>
       </c>
       <c r="K17">
-        <v>2.738809973013502</v>
+        <v>1.650271276493868</v>
       </c>
       <c r="L17">
-        <v>0.6843495764764782</v>
+        <v>0.6274650021566544</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6867537967898159</v>
+        <v>0.7481152975458656</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0480273258536883</v>
+        <v>0.01568105531747932</v>
       </c>
       <c r="E18">
-        <v>0.02749492592080927</v>
+        <v>0.03830958758070047</v>
       </c>
       <c r="F18">
-        <v>4.295724435607241</v>
+        <v>4.696321588420204</v>
       </c>
       <c r="G18">
-        <v>0.0008337635058964952</v>
+        <v>0.002627231224426875</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.136955714457329</v>
+        <v>2.561661968561097</v>
       </c>
       <c r="J18">
-        <v>0.06440312556409467</v>
+        <v>0.1028910878389677</v>
       </c>
       <c r="K18">
-        <v>2.666830508400011</v>
+        <v>1.635255085825833</v>
       </c>
       <c r="L18">
-        <v>0.668333581723715</v>
+        <v>0.6245096596551321</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6809955719259619</v>
+        <v>0.7472239798217402</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04759955237269509</v>
+        <v>0.015552033343738</v>
       </c>
       <c r="E19">
-        <v>0.02732202115687521</v>
+        <v>0.03826154344484678</v>
       </c>
       <c r="F19">
-        <v>4.272713170087712</v>
+        <v>4.691169513025272</v>
       </c>
       <c r="G19">
-        <v>0.0008344811347910055</v>
+        <v>0.002627633204503433</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.128481929636749</v>
+        <v>2.559615481407121</v>
       </c>
       <c r="J19">
-        <v>0.06428983975686453</v>
+        <v>0.1028503526238076</v>
       </c>
       <c r="K19">
-        <v>2.642560835793887</v>
+        <v>1.630189643784632</v>
       </c>
       <c r="L19">
-        <v>0.6629368316126829</v>
+        <v>0.6235150989263616</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7069924555915748</v>
+        <v>0.7512682209894308</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04953442539082431</v>
+        <v>0.01613262720435671</v>
       </c>
       <c r="E20">
-        <v>0.02810388620096127</v>
+        <v>0.03847744451742408</v>
       </c>
       <c r="F20">
-        <v>4.376772616975643</v>
+        <v>4.71445281896527</v>
       </c>
       <c r="G20">
-        <v>0.0008312581730621035</v>
+        <v>0.002625835213875427</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.166812736148401</v>
+        <v>2.568862143303718</v>
       </c>
       <c r="J20">
-        <v>0.06480182918627442</v>
+        <v>0.1030329733447717</v>
       </c>
       <c r="K20">
-        <v>2.752180924414176</v>
+        <v>1.653059362398693</v>
       </c>
       <c r="L20">
-        <v>0.687326364814993</v>
+        <v>0.628014852557385</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7959225473351239</v>
+        <v>0.7654365406727663</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.05622565332018326</v>
+        <v>0.01808323911537002</v>
       </c>
       <c r="E21">
-        <v>0.03080495553392204</v>
+        <v>0.03919764651617541</v>
       </c>
       <c r="F21">
-        <v>4.735911076559432</v>
+        <v>4.794407302823004</v>
       </c>
       <c r="G21">
-        <v>0.000820532364715512</v>
+        <v>0.002619985528496771</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.299303204230185</v>
+        <v>2.600583142057516</v>
       </c>
       <c r="J21">
-        <v>0.06656603478133505</v>
+        <v>0.1036345454405954</v>
       </c>
       <c r="K21">
-        <v>3.128188833874219</v>
+        <v>1.731207971514607</v>
       </c>
       <c r="L21">
-        <v>0.7712319068482145</v>
+        <v>0.6435560036591426</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8553667298919549</v>
+        <v>0.7751276193464207</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.06076427898359071</v>
+        <v>0.01935828536821305</v>
       </c>
       <c r="E22">
-        <v>0.03263612179564035</v>
+        <v>0.03966459488380991</v>
       </c>
       <c r="F22">
-        <v>4.978568368804162</v>
+        <v>4.847953146221272</v>
       </c>
       <c r="G22">
-        <v>0.0008135862326905663</v>
+        <v>0.002616304339057569</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.388967784151873</v>
+        <v>2.621803817222556</v>
       </c>
       <c r="J22">
-        <v>0.06775929694933147</v>
+        <v>0.1040188870039884</v>
       </c>
       <c r="K22">
-        <v>3.380492669129126</v>
+        <v>1.783262077676852</v>
       </c>
       <c r="L22">
-        <v>0.8277221330115196</v>
+        <v>0.6540286305620953</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8235094786539605</v>
+        <v>0.7699159228716894</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.05832515507385239</v>
+        <v>0.01867773166144104</v>
       </c>
       <c r="E23">
-        <v>0.03165203371360192</v>
+        <v>0.03941571021547219</v>
       </c>
       <c r="F23">
-        <v>4.848273257557196</v>
+        <v>4.819256292528138</v>
       </c>
       <c r="G23">
-        <v>0.0008172885534172668</v>
+        <v>0.002618256116664714</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.340809467434312</v>
+        <v>2.61043304794579</v>
       </c>
       <c r="J23">
-        <v>0.06711823140186279</v>
+        <v>0.1038145554114669</v>
       </c>
       <c r="K23">
-        <v>3.245176850896371</v>
+        <v>1.755389971757666</v>
       </c>
       <c r="L23">
-        <v>0.7974078504087458</v>
+        <v>0.6484102756098196</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7055592137229212</v>
+        <v>0.7510439447032979</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04942751158992564</v>
+        <v>0.01610074488188928</v>
       </c>
       <c r="E24">
-        <v>0.02806069621359342</v>
+        <v>0.03846560813324551</v>
       </c>
       <c r="F24">
-        <v>4.37102441720026</v>
+        <v>4.713167730582512</v>
       </c>
       <c r="G24">
-        <v>0.0008314347446315164</v>
+        <v>0.002625933229328406</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.164694609002552</v>
+        <v>2.56835190775405</v>
       </c>
       <c r="J24">
-        <v>0.06477356529628331</v>
+        <v>0.1030229901936837</v>
       </c>
       <c r="K24">
-        <v>2.746134113281272</v>
+        <v>1.651798549133304</v>
       </c>
       <c r="L24">
-        <v>0.6859800942189622</v>
+        <v>0.6277661593120314</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5831241847384092</v>
+        <v>0.7325466862129133</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0403943700211542</v>
+        <v>0.01332008284340702</v>
       </c>
       <c r="E25">
-        <v>0.02440416173993931</v>
+        <v>0.03742386336606085</v>
       </c>
       <c r="F25">
-        <v>3.885039167211858</v>
+        <v>4.604245608411446</v>
       </c>
       <c r="G25">
-        <v>0.0008470478906116668</v>
+        <v>0.00263482793897698</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.98597322971365</v>
+        <v>2.525046849273252</v>
       </c>
       <c r="J25">
-        <v>0.06237132562459635</v>
+        <v>0.1021304489230799</v>
       </c>
       <c r="K25">
-        <v>2.23089870037586</v>
+        <v>1.544240801762783</v>
       </c>
       <c r="L25">
-        <v>0.5716907074925217</v>
+        <v>0.606849006363305</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_151/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_151/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7205305911032269</v>
+        <v>0.4962208078544563</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01126933737403135</v>
+        <v>0.03408994806267884</v>
       </c>
       <c r="E2">
-        <v>0.0366412189657721</v>
+        <v>0.02183733000683574</v>
       </c>
       <c r="F2">
-        <v>4.528730623816841</v>
+        <v>3.546820497424733</v>
       </c>
       <c r="G2">
-        <v>0.002641910959350843</v>
+        <v>0.0008589280894086984</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.494931622134104</v>
+        <v>1.862138175147606</v>
       </c>
       <c r="J2">
-        <v>0.1014389295986393</v>
+        <v>0.06066869361220517</v>
       </c>
       <c r="K2">
-        <v>1.468597778396258</v>
+        <v>1.866405377102438</v>
       </c>
       <c r="L2">
-        <v>0.5926008526189719</v>
+        <v>0.4914558832024341</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7133901413602644</v>
+        <v>0.4389710246193204</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.009876196763748624</v>
+        <v>0.02997545701247617</v>
       </c>
       <c r="E3">
-        <v>0.03610054927880046</v>
+        <v>0.02015059131487984</v>
       </c>
       <c r="F3">
-        <v>4.480448900386264</v>
+        <v>3.32761615854163</v>
       </c>
       <c r="G3">
-        <v>0.002647047282163658</v>
+        <v>0.0008672536975420364</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.475614974372661</v>
+        <v>1.782223601163722</v>
       </c>
       <c r="J3">
-        <v>0.1009483339147441</v>
+        <v>0.05953830496446022</v>
       </c>
       <c r="K3">
-        <v>1.419528241681235</v>
+        <v>1.626542289650047</v>
       </c>
       <c r="L3">
-        <v>0.5836601267851336</v>
+        <v>0.4390260056547817</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7095018409301019</v>
+        <v>0.4045203290788209</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.009018767946329831</v>
+        <v>0.02751043853705681</v>
       </c>
       <c r="E4">
-        <v>0.03576334569520778</v>
+        <v>0.01913376672996581</v>
       </c>
       <c r="F4">
-        <v>4.452224354894994</v>
+        <v>3.197310481378736</v>
       </c>
       <c r="G4">
-        <v>0.002650367787376107</v>
+        <v>0.0008725111251013578</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.464290087476286</v>
+        <v>1.734889862988652</v>
       </c>
       <c r="J4">
-        <v>0.1006361114359202</v>
+        <v>0.05885080488182037</v>
       </c>
       <c r="K4">
-        <v>1.390476022379204</v>
+        <v>1.482179882575394</v>
       </c>
       <c r="L4">
-        <v>0.5785223269987512</v>
+        <v>0.4076492157103786</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7080423126041921</v>
+        <v>0.3906427332323545</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.008668795280314612</v>
+        <v>0.02651909926425589</v>
       </c>
       <c r="E5">
-        <v>0.0356245946535374</v>
+        <v>0.01872317769682752</v>
       </c>
       <c r="F5">
-        <v>4.441079086594129</v>
+        <v>3.145199608238642</v>
       </c>
       <c r="G5">
-        <v>0.002651762999087996</v>
+        <v>0.0008746915306959617</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.459809425440454</v>
+        <v>1.716003929493922</v>
       </c>
       <c r="J5">
-        <v>0.1005060896942847</v>
+        <v>0.05857162293726281</v>
       </c>
       <c r="K5">
-        <v>1.378907239804505</v>
+        <v>1.424000914959777</v>
       </c>
       <c r="L5">
-        <v>0.576517031528212</v>
+        <v>0.3950484567300236</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7078075159496251</v>
+        <v>0.3883476989945933</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008610647042551989</v>
+        <v>0.02635522212617047</v>
       </c>
       <c r="E6">
-        <v>0.03560147368720923</v>
+        <v>0.01865520126454268</v>
       </c>
       <c r="F6">
-        <v>4.439249930639988</v>
+        <v>3.136603960433021</v>
       </c>
       <c r="G6">
-        <v>0.002651997218637968</v>
+        <v>0.0008750559169336761</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.459073517034625</v>
+        <v>1.712891347984645</v>
       </c>
       <c r="J6">
-        <v>0.1004843305667817</v>
+        <v>0.05852530575075354</v>
       </c>
       <c r="K6">
-        <v>1.377002559291327</v>
+        <v>1.414377289306685</v>
       </c>
       <c r="L6">
-        <v>0.5761893908095459</v>
+        <v>0.3929667749298318</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7094816507976986</v>
+        <v>0.4043325365907435</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009014050441479071</v>
+        <v>0.0274970184586536</v>
       </c>
       <c r="E7">
-        <v>0.03576147989627465</v>
+        <v>0.01912821530410103</v>
       </c>
       <c r="F7">
-        <v>4.452072603640772</v>
+        <v>3.196603800291868</v>
       </c>
       <c r="G7">
-        <v>0.002650386432990742</v>
+        <v>0.0008725403753528724</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.464229116334607</v>
+        <v>1.734633571217756</v>
       </c>
       <c r="J7">
-        <v>0.1006343692387492</v>
+        <v>0.05884703660967983</v>
       </c>
       <c r="K7">
-        <v>1.390318908231649</v>
+        <v>1.481392734298964</v>
       </c>
       <c r="L7">
-        <v>0.5784949250517855</v>
+        <v>0.4074785509014021</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7179657829609027</v>
+        <v>0.4763262666197505</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01078937326585816</v>
+        <v>0.03265713987039476</v>
       </c>
       <c r="E8">
-        <v>0.03645586778909138</v>
+        <v>0.02125122400425461</v>
       </c>
       <c r="F8">
-        <v>4.511787750192894</v>
+        <v>3.470293935168854</v>
       </c>
       <c r="G8">
-        <v>0.002643647432236025</v>
+        <v>0.0008617694296664258</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.488159848667991</v>
+        <v>1.834203006328437</v>
       </c>
       <c r="J8">
-        <v>0.1012720397401807</v>
+        <v>0.06027714944075768</v>
       </c>
       <c r="K8">
-        <v>1.45145480876721</v>
+        <v>1.783043587596723</v>
       </c>
       <c r="L8">
-        <v>0.58944501531208</v>
+        <v>0.4731966009682935</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7385287902021105</v>
+        <v>0.6238080995624671</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0142571085679748</v>
+        <v>0.04337486930251089</v>
       </c>
       <c r="E9">
-        <v>0.03777713139314898</v>
+        <v>0.02561265016546344</v>
       </c>
       <c r="F9">
-        <v>4.640205006299709</v>
+        <v>4.045377965046072</v>
       </c>
       <c r="G9">
-        <v>0.002631749213273808</v>
+        <v>0.0008417338304897396</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.53935770432517</v>
+        <v>2.044851894230106</v>
       </c>
       <c r="J9">
-        <v>0.1024363682826639</v>
+        <v>0.06316764400317876</v>
       </c>
       <c r="K9">
-        <v>1.579917263000766</v>
+        <v>2.401840066663112</v>
       </c>
       <c r="L9">
-        <v>0.6137153226802923</v>
+        <v>0.6095092508504507</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7560201282798857</v>
+        <v>0.7371512131978193</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01680015808717883</v>
+        <v>0.05179081777959027</v>
       </c>
       <c r="E10">
-        <v>0.03872476847989681</v>
+        <v>0.02901511030277604</v>
       </c>
       <c r="F10">
-        <v>4.741526312787613</v>
+        <v>4.498027017961164</v>
       </c>
       <c r="G10">
-        <v>0.002623801463189634</v>
+        <v>0.0008275713651311246</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.579608420606988</v>
+        <v>2.211512378349056</v>
       </c>
       <c r="J10">
-        <v>0.1032408368470685</v>
+        <v>0.06539769547105134</v>
       </c>
       <c r="K10">
-        <v>1.679584427791781</v>
+        <v>2.879513138574879</v>
       </c>
       <c r="L10">
-        <v>0.6332627396915598</v>
+        <v>0.7156993186328293</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7644932929803758</v>
+        <v>0.7900859710699137</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01795683597941178</v>
+        <v>0.05578294193230704</v>
       </c>
       <c r="E11">
-        <v>0.03915119937895639</v>
+        <v>0.03062632458935255</v>
       </c>
       <c r="F11">
-        <v>4.789151219041855</v>
+        <v>4.712195107696317</v>
       </c>
       <c r="G11">
-        <v>0.002620356294351905</v>
+        <v>0.0008212233835958507</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.598499198694043</v>
+        <v>2.290545622169617</v>
       </c>
       <c r="J11">
-        <v>0.103596081208293</v>
+        <v>0.06644953465290548</v>
       </c>
       <c r="K11">
-        <v>1.726087035905152</v>
+        <v>3.103459550400828</v>
       </c>
       <c r="L11">
-        <v>0.6425305780236101</v>
+        <v>0.7657027780065278</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7677759030159166</v>
+        <v>0.8103556988906462</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01839487611705692</v>
+        <v>0.05732263822817174</v>
       </c>
       <c r="E12">
-        <v>0.03931203495608315</v>
+        <v>0.03124756031721532</v>
       </c>
       <c r="F12">
-        <v>4.80740714492336</v>
+        <v>4.794642894212473</v>
       </c>
       <c r="G12">
-        <v>0.002619076041969759</v>
+        <v>0.0008188307164341572</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.605736616519451</v>
+        <v>2.32099567534506</v>
       </c>
       <c r="J12">
-        <v>0.1037290892305993</v>
+        <v>0.06685461139497129</v>
       </c>
       <c r="K12">
-        <v>1.743864549279181</v>
+        <v>3.189374048147158</v>
       </c>
       <c r="L12">
-        <v>0.646094240032852</v>
+        <v>0.7849181684406403</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7670656463876924</v>
+        <v>0.8059798057161061</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.018300534055399</v>
+        <v>0.05698971617348292</v>
       </c>
       <c r="E13">
-        <v>0.03927742440739479</v>
+        <v>0.03111323752089135</v>
       </c>
       <c r="F13">
-        <v>4.803465542764656</v>
+        <v>4.776823632933201</v>
       </c>
       <c r="G13">
-        <v>0.002619350685974713</v>
+        <v>0.0008193455647167075</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.604174171478334</v>
+        <v>2.314413487476173</v>
       </c>
       <c r="J13">
-        <v>0.1037005105652815</v>
+        <v>0.06676704545119172</v>
       </c>
       <c r="K13">
-        <v>1.740028361571433</v>
+        <v>3.170818752457706</v>
       </c>
       <c r="L13">
-        <v>0.6453243321352033</v>
+        <v>0.7807667069417619</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.764761873392473</v>
+        <v>0.7917489100186401</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01799287285805207</v>
+        <v>0.05590902564293287</v>
       </c>
       <c r="E14">
-        <v>0.03916444419405885</v>
+        <v>0.03067719908839628</v>
       </c>
       <c r="F14">
-        <v>4.790648702427774</v>
+        <v>4.718950158466981</v>
       </c>
       <c r="G14">
-        <v>0.002620250479940365</v>
+        <v>0.0008210263283291703</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.599092941766514</v>
+        <v>2.293039944660308</v>
       </c>
       <c r="J14">
-        <v>0.1036070540827936</v>
+        <v>0.06648271620169588</v>
       </c>
       <c r="K14">
-        <v>1.727546232030022</v>
+        <v>3.110504571528111</v>
       </c>
       <c r="L14">
-        <v>0.6428226770393906</v>
+        <v>0.7672778020747444</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7633603769486967</v>
+        <v>0.7830621590645421</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01780442722526487</v>
+        <v>0.05525085529997398</v>
       </c>
       <c r="E15">
-        <v>0.03909515734925861</v>
+        <v>0.0304116228215463</v>
       </c>
       <c r="F15">
-        <v>4.782826878816934</v>
+        <v>4.683681464714965</v>
       </c>
       <c r="G15">
-        <v>0.002620804797888479</v>
+        <v>0.0008220572231786714</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.595991479072879</v>
+        <v>2.280017864613413</v>
       </c>
       <c r="J15">
-        <v>0.1035496126998297</v>
+        <v>0.06630948258036362</v>
       </c>
       <c r="K15">
-        <v>1.719922464208025</v>
+        <v>3.073709970154027</v>
       </c>
       <c r="L15">
-        <v>0.6412973943675695</v>
+        <v>0.7590530916444891</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7554767556780178</v>
+        <v>0.7337216852336326</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01672456781919607</v>
+        <v>0.05153358166865729</v>
       </c>
       <c r="E16">
-        <v>0.03869680867185643</v>
+        <v>0.02891125302006969</v>
       </c>
       <c r="F16">
-        <v>4.738444845785153</v>
+        <v>4.484209998575864</v>
       </c>
       <c r="G16">
-        <v>0.002624030028905282</v>
+        <v>0.0008279879227893191</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.578385580587209</v>
+        <v>2.206417033056468</v>
       </c>
       <c r="J16">
-        <v>0.103217407374844</v>
+        <v>0.06532982197685033</v>
       </c>
       <c r="K16">
-        <v>1.676568842910143</v>
+        <v>2.865024324312856</v>
       </c>
       <c r="L16">
-        <v>0.6326646331556844</v>
+        <v>0.7124686145955934</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.750772470763394</v>
+        <v>0.7038230889029364</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01606210536301944</v>
+        <v>0.04929804210167532</v>
       </c>
       <c r="E17">
-        <v>0.03845126014517675</v>
+        <v>0.02800839252486398</v>
       </c>
       <c r="F17">
-        <v>4.711611277700968</v>
+        <v>4.364063212857872</v>
       </c>
       <c r="G17">
-        <v>0.002626052128730333</v>
+        <v>0.0008316488011743954</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.567733910434853</v>
+        <v>2.162129621838872</v>
       </c>
       <c r="J17">
-        <v>0.1030108842795272</v>
+        <v>0.06473933459011594</v>
       </c>
       <c r="K17">
-        <v>1.650271276493868</v>
+        <v>2.738809973013588</v>
       </c>
       <c r="L17">
-        <v>0.6274650021566544</v>
+        <v>0.6843495764764782</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7481152975458656</v>
+        <v>0.6867537967898443</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01568105531747932</v>
+        <v>0.04802732585391567</v>
       </c>
       <c r="E18">
-        <v>0.03830958758070047</v>
+        <v>0.02749492592084302</v>
       </c>
       <c r="F18">
-        <v>4.696321588420204</v>
+        <v>4.295724435607241</v>
       </c>
       <c r="G18">
-        <v>0.002627231224426875</v>
+        <v>0.0008337635058939721</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.561661968561097</v>
+        <v>2.136955714457343</v>
       </c>
       <c r="J18">
-        <v>0.1028910878389677</v>
+        <v>0.06440312556425365</v>
       </c>
       <c r="K18">
-        <v>1.635255085825833</v>
+        <v>2.666830508400153</v>
       </c>
       <c r="L18">
-        <v>0.6245096596551321</v>
+        <v>0.6683335817236582</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7472239798217402</v>
+        <v>0.6809955719258767</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.015552033343738</v>
+        <v>0.04759955237275904</v>
       </c>
       <c r="E19">
-        <v>0.03826154344484678</v>
+        <v>0.02732202115689653</v>
       </c>
       <c r="F19">
-        <v>4.691169513025272</v>
+        <v>4.272713170087712</v>
       </c>
       <c r="G19">
-        <v>0.002627633204503433</v>
+        <v>0.0008344811349197517</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.559615481407121</v>
+        <v>2.128481929636791</v>
       </c>
       <c r="J19">
-        <v>0.1028503526238076</v>
+        <v>0.06428983975686897</v>
       </c>
       <c r="K19">
-        <v>1.630189643784632</v>
+        <v>2.642560835793915</v>
       </c>
       <c r="L19">
-        <v>0.6235150989263616</v>
+        <v>0.6629368316126119</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7512682209894308</v>
+        <v>0.7069924555917169</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01613262720435671</v>
+        <v>0.04953442539103747</v>
       </c>
       <c r="E20">
-        <v>0.03847744451742408</v>
+        <v>0.02810388620090976</v>
       </c>
       <c r="F20">
-        <v>4.71445281896527</v>
+        <v>4.376772616975614</v>
       </c>
       <c r="G20">
-        <v>0.002625835213875427</v>
+        <v>0.0008312581730573032</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.568862143303718</v>
+        <v>2.166812736148387</v>
       </c>
       <c r="J20">
-        <v>0.1030329733447717</v>
+        <v>0.06480182918637301</v>
       </c>
       <c r="K20">
-        <v>1.653059362398693</v>
+        <v>2.752180924414176</v>
       </c>
       <c r="L20">
-        <v>0.628014852557385</v>
+        <v>0.6873263648149077</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7654365406727663</v>
+        <v>0.7959225473350955</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01808323911537002</v>
+        <v>0.05622565332004115</v>
       </c>
       <c r="E21">
-        <v>0.03919764651617541</v>
+        <v>0.03080495553392382</v>
       </c>
       <c r="F21">
-        <v>4.794407302823004</v>
+        <v>4.735911076559432</v>
       </c>
       <c r="G21">
-        <v>0.002619985528496771</v>
+        <v>0.0008205323647372254</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.600583142057516</v>
+        <v>2.299303204230185</v>
       </c>
       <c r="J21">
-        <v>0.1036345454405954</v>
+        <v>0.06656603478126932</v>
       </c>
       <c r="K21">
-        <v>1.731207971514607</v>
+        <v>3.128188833874276</v>
       </c>
       <c r="L21">
-        <v>0.6435560036591426</v>
+        <v>0.7712319068483282</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7751276193464207</v>
+        <v>0.8553667298919265</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01935828536821305</v>
+        <v>0.0607642789839602</v>
       </c>
       <c r="E22">
-        <v>0.03966459488380991</v>
+        <v>0.03263612179563147</v>
       </c>
       <c r="F22">
-        <v>4.847953146221272</v>
+        <v>4.978568368804162</v>
       </c>
       <c r="G22">
-        <v>0.002616304339057569</v>
+        <v>0.0008135862327089145</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.621803817222556</v>
+        <v>2.388967784151887</v>
       </c>
       <c r="J22">
-        <v>0.1040188870039884</v>
+        <v>0.06775929694935279</v>
       </c>
       <c r="K22">
-        <v>1.783262077676852</v>
+        <v>3.380492669129239</v>
       </c>
       <c r="L22">
-        <v>0.6540286305620953</v>
+        <v>0.8277221330116618</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7699159228716894</v>
+        <v>0.8235094786539605</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01867773166144104</v>
+        <v>0.05832515507407265</v>
       </c>
       <c r="E23">
-        <v>0.03941571021547219</v>
+        <v>0.03165203371355396</v>
       </c>
       <c r="F23">
-        <v>4.819256292528138</v>
+        <v>4.848273257557196</v>
       </c>
       <c r="G23">
-        <v>0.002618256116664714</v>
+        <v>0.0008172885534953677</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.61043304794579</v>
+        <v>2.340809467434298</v>
       </c>
       <c r="J23">
-        <v>0.1038145554114669</v>
+        <v>0.06711823140183792</v>
       </c>
       <c r="K23">
-        <v>1.755389971757666</v>
+        <v>3.245176850896314</v>
       </c>
       <c r="L23">
-        <v>0.6484102756098196</v>
+        <v>0.7974078504087458</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7510439447032979</v>
+        <v>0.7055592137230917</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01610074488188928</v>
+        <v>0.04942751158981906</v>
       </c>
       <c r="E24">
-        <v>0.03846560813324551</v>
+        <v>0.02806069621362184</v>
       </c>
       <c r="F24">
-        <v>4.713167730582512</v>
+        <v>4.37102441720026</v>
       </c>
       <c r="G24">
-        <v>0.002625933229328406</v>
+        <v>0.0008314347446879158</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.56835190775405</v>
+        <v>2.164694609002581</v>
       </c>
       <c r="J24">
-        <v>0.1030229901936837</v>
+        <v>0.06477356529636236</v>
       </c>
       <c r="K24">
-        <v>1.651798549133304</v>
+        <v>2.746134113281215</v>
       </c>
       <c r="L24">
-        <v>0.6277661593120314</v>
+        <v>0.6859800942188201</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7325466862129133</v>
+        <v>0.5831241847384092</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01332008284340702</v>
+        <v>0.04039437002091262</v>
       </c>
       <c r="E25">
-        <v>0.03742386336606085</v>
+        <v>0.02440416173987003</v>
       </c>
       <c r="F25">
-        <v>4.604245608411446</v>
+        <v>3.885039167211858</v>
       </c>
       <c r="G25">
-        <v>0.00263482793897698</v>
+        <v>0.0008470478907479974</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.525046849273252</v>
+        <v>1.985973229713636</v>
       </c>
       <c r="J25">
-        <v>0.1021304489230799</v>
+        <v>0.06237132562462921</v>
       </c>
       <c r="K25">
-        <v>1.544240801762783</v>
+        <v>2.230898700375889</v>
       </c>
       <c r="L25">
-        <v>0.606849006363305</v>
+        <v>0.5716907074925217</v>
       </c>
       <c r="M25">
         <v>0</v>
